--- a/Lectures and Assignment 2/problem5.xlsx
+++ b/Lectures and Assignment 2/problem5.xlsx
@@ -8,39 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C106D-71AF-4335-8DB6-744A0F76208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02682B-B0AC-48F1-B70A-C0FD39F91192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="12" windowWidth="11964" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 5" sheetId="20" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 5'!$N$33:$T$33</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 5'!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 5'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 5'!$N$33:$T$33</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 5'!$U$35:$U$41</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 5'!#REF!</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 5'!#REF!</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,075"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 5'!$U$42</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 5'!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 5'!$W$35:$W$41</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 5'!#REF!</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Problem 5'!#REF!</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -50,7 +52,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>A</t>
   </si>
@@ -99,6 +101,72 @@
   </si>
   <si>
     <t>Table 1. Driving times between municipalities (minutes)</t>
+  </si>
+  <si>
+    <t>ISM-C1004 - Business Analytics 1 - Assignment 2 (Total 36 points)</t>
+  </si>
+  <si>
+    <t>xA</t>
+  </si>
+  <si>
+    <t>xB</t>
+  </si>
+  <si>
+    <t>xC</t>
+  </si>
+  <si>
+    <t>xD</t>
+  </si>
+  <si>
+    <t>xE</t>
+  </si>
+  <si>
+    <t>xF</t>
+  </si>
+  <si>
+    <t>xG</t>
+  </si>
+  <si>
+    <t>Decision variables</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality A</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality B</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality C</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality D</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality E</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality F</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality G</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Total clinic constructions cost</t>
+  </si>
+  <si>
+    <t>Minimize total construction costs</t>
+  </si>
+  <si>
+    <t>Clinics built</t>
   </si>
 </sst>
 </file>
@@ -152,7 +220,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +233,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -254,11 +340,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -312,11 +454,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,9 +516,9 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6143625" cy="3809999"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="6143625" cy="8978348"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -360,8 +532,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="142875" y="523875"/>
-              <a:ext cx="6143625" cy="3809999"/>
+              <a:off x="145774" y="516835"/>
+              <a:ext cx="6143625" cy="8978348"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -458,19 +630,43 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>a) Mathematically formulate a BLP model that identifies those municipalities to which clinics should be built so that the total construction costs are minimized and all municipalities have a clinic within a 30 minute driving distance. Use decision variables</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (a):</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> Mathematically formulate a BLP model that identifies those municipalities to which clinics should be built so that the total construction costs are minimized and all municipalities have a clinic within a 30 minute driving distance. Use decision variables</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -486,7 +682,7 @@
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -499,7 +695,7 @@
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -513,7 +709,7 @@
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -527,7 +723,7 @@
                   <m:r>
                     <a:rPr lang="en-US" sz="1100" b="0" i="1">
                       <a:solidFill>
-                        <a:schemeClr val="tx1"/>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -541,7 +737,7 @@
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -554,7 +750,7 @@
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -568,7 +764,7 @@
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -582,7 +778,7 @@
                   <m:r>
                     <a:rPr lang="en-US" sz="1100" b="0" i="1">
                       <a:solidFill>
-                        <a:schemeClr val="tx1"/>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -598,7 +794,7 @@
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -611,7 +807,7 @@
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -627,7 +823,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -639,7 +835,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -651,7 +847,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -663,6 +859,58 @@
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Formulation</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> of</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> the Binary Linear Programming Model</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -674,215 +922,32 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:func>
-                    <m:funcPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:funcPr>
-                    <m:fName>
-                      <m:r>
-                        <m:rPr>
-                          <m:sty m:val="p"/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>min</m:t>
-                      </m:r>
-                    </m:fName>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>3</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>.1</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>5</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:srgbClr val="FF0000"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:srgbClr val="FF0000"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑥</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:srgbClr val="FF0000"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝐴</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>+</m:t>
-                      </m:r>
-                    </m:e>
-                  </m:func>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>…</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1. Decision Variables</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
               <a:endParaRPr lang="en-US" sz="1100">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) Implement a spreadsheet model to solve this BLP</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> and report the municipalities to which clinics should be built as well as  the optimal total cost</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> (3 pts)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
@@ -909,291 +974,2636 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-              <a:endParaRPr lang="fi-FI">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Number of decision variables is 7.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> They are b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>inary (0 or 1), indicating whether to build a clinic in each municipality.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" b="0"/>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2. Objective Function</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The objective is to minimize the total construction cost. Thus, the objective function is:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>min</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑧</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>.1</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐴</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+3.6</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+3.15</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+4.05</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐷</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+2.85</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐸</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2.7</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐹</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3.6</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐺</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3. Constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>We need to ensure that every municipality has access to a clinic within a 30 minutes' driving distance.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>As a result,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> for each municipality, we only consider building a clinic that is within 30 minutes driving or inside the municipality itself, and omitting those with more than 30 minutes driving. We can obtain 7 constraints as follows</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" b="1">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Municipality A</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI"/>
+                <a:t> (clinic in A or B): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality B</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in A, B, C, or D): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality C</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in B, C, D, or G): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐴</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐺</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality D</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in B, C, D, or F): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐹</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐺</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality E</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in D, E, or F): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐸</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐹</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality F</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in D, E, or F): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐸</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐹</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality G</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in C or G): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐺</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Binary constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, …,</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐺</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∈{0;1}</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>b) Implement a spreadsheet model to solve this BLP</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> and report the municipalities to which clinics should be built as well as the optimal total cost</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (3 pts)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The spreadsheet model to solve this BLP problem has been implemented on the right</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>There are 3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> clinics that need to be built, and they are located in the municipalities </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="1" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>A, C, F</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>The optimal total construction cost is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="1" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>9 million euros</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" b="1">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1207,8 +3617,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="142875" y="523875"/>
-              <a:ext cx="6143625" cy="3809999"/>
+              <a:off x="145774" y="516835"/>
+              <a:ext cx="6143625" cy="8978348"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1305,19 +3715,43 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>a) Mathematically formulate a BLP model that identifies those municipalities to which clinics should be built so that the total construction costs are minimized and all municipalities have a clinic within a 30 minute driving distance. Use decision variables</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (a):</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> Mathematically formulate a BLP model that identifies those municipalities to which clinics should be built so that the total construction costs are minimized and all municipalities have a clinic within a 30 minute driving distance. Use decision variables</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1329,7 +3763,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1341,7 +3775,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1353,7 +3787,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1365,7 +3799,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1377,6 +3811,58 @@
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Formulation</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> of</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> the Binary Linear Programming Model</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1388,134 +3874,32 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>min⁡〖</a:t>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1. Decision Variables</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>.1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>5</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥_𝐴+〗…</a:t>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) Implement a spreadsheet model to solve this BLP</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> and report the municipalities to which clinics should be built as well as  the optimal total cost</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> (3 pts)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
@@ -1542,286 +3926,928 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-              <a:endParaRPr lang="fi-FI">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Number of decision variables is 7.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> They are b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>inary (0 or 1), indicating whether to build a clinic in each municipality.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" b="0"/>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2. Objective Function</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The objective is to minimize the total construction cost. Thus, the objective function is:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖min 𝑧=〗⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>.1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐴+3.6𝑥_𝐵+3.15𝑥_𝐶+4.05𝑥_𝐷+2.85𝑥_𝐸+〖2.7𝑥〗_𝐹 〗+〖3.6𝑥〗_𝐺</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3. Constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>We need to ensure that every municipality has access to a clinic within a 30 minutes' driving distance.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>As a result,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> for each municipality, we only consider building a clinic that is within 30 minutes driving or inside the municipality itself, and omitting those with more than 30 minutes driving. We can obtain 7 constraints as follows</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" b="1">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Municipality A</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI"/>
+                <a:t> (clinic in A or B): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐴+𝑥_𝐵+𝑥_𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≥1</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality B</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in A, B, C, or D): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐴+𝑥_𝐵+𝑥_𝐷≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality C</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in B, C, D, or G): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑥_𝐴+𝑥〗_𝐶+𝑥_𝐷+𝑥_𝐺≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality D</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in B, C, D, or F): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐵+𝑥_𝐶+𝑥_𝐷+𝑥_𝐹+𝑥_𝐺≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality E</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in D, E, or F): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐸+𝑥_𝐹≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality F</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in D, E, or F): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐷+𝑥_𝐸+𝑥_𝐹≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality G</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in C or G): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐶+𝑥_𝐷+𝑥_𝐺≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Binary constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴, …,𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐺∈{0;1}</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>b) Implement a spreadsheet model to solve this BLP</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> and report the municipalities to which clinics should be built as well as the optimal total cost</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (3 pts)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The spreadsheet model to solve this BLP problem has been implemented on the right</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>There are 3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> clinics that need to be built, and they are located in the municipalities </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="1" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>A, C, F</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>The optimal total construction cost is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="1" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>9 million euros</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" b="1">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3134,21 +6160,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="28.88671875" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3202,211 +6235,211 @@
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
     </row>
-    <row r="17" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
     </row>
-    <row r="18" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
     </row>
-    <row r="20" spans="2:22" ht="83.4" x14ac:dyDescent="4.1500000000000004">
+    <row r="20" spans="3:22" ht="83.4" x14ac:dyDescent="4.1500000000000004">
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="J21" s="21" t="s">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="U21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="V21" s="26"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="15" t="s">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M23" s="13"/>
+      <c r="N23" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="O23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="P23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="Q23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="R23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="S23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="10" t="s">
+      <c r="T23" s="3"/>
+      <c r="U23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="17">
+      <c r="V23" s="17">
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M24" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="3">
+      <c r="N24" s="3">
         <v>15</v>
       </c>
-      <c r="D24" s="3">
+      <c r="O24" s="3">
         <v>20</v>
       </c>
-      <c r="E24" s="3">
+      <c r="P24" s="3">
         <v>35</v>
       </c>
-      <c r="F24" s="3">
+      <c r="Q24" s="3">
         <v>35</v>
       </c>
-      <c r="G24" s="3">
+      <c r="R24" s="3">
         <v>45</v>
       </c>
-      <c r="H24" s="7">
+      <c r="S24" s="7">
         <v>40</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="6" t="s">
+      <c r="T24" s="3"/>
+      <c r="U24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K24" s="8">
+      <c r="V24" s="8">
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3">
         <v>35</v>
       </c>
-      <c r="E25" s="3">
+      <c r="P25" s="3">
         <v>20</v>
       </c>
-      <c r="F25" s="3">
+      <c r="Q25" s="3">
         <v>35</v>
       </c>
-      <c r="G25" s="3">
+      <c r="R25" s="3">
         <v>40</v>
       </c>
-      <c r="H25" s="7">
+      <c r="S25" s="7">
         <v>40</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="6" t="s">
+      <c r="T25" s="3"/>
+      <c r="U25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="8">
+      <c r="V25" s="8">
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3">
         <v>15</v>
       </c>
-      <c r="F26" s="3">
+      <c r="Q26" s="3">
         <v>50</v>
       </c>
-      <c r="G26" s="3">
+      <c r="R26" s="3">
         <v>45</v>
       </c>
-      <c r="H26" s="7">
+      <c r="S26" s="7">
         <v>25</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="6" t="s">
+      <c r="T26" s="3"/>
+      <c r="U26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="8">
+      <c r="V26" s="8">
         <v>4.0500000000000007</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3">
         <v>35</v>
       </c>
-      <c r="G27" s="3">
+      <c r="R27" s="3">
         <v>20</v>
       </c>
-      <c r="H27" s="7">
+      <c r="S27" s="7">
         <v>20</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="6" t="s">
+      <c r="T27" s="3"/>
+      <c r="U27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="8">
+      <c r="V27" s="8">
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3">
         <v>15</v>
       </c>
-      <c r="H28" s="7">
+      <c r="S28" s="7">
         <v>40</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="6" t="s">
+      <c r="T28" s="3"/>
+      <c r="U28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="8">
+      <c r="V28" s="8">
         <v>2.7</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="11">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="11">
         <v>35</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="12" t="s">
+      <c r="T29" s="3"/>
+      <c r="U29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="18">
+      <c r="V29" s="18">
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3417,10 +6450,315 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="T32" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M33" s="22"/>
+      <c r="N33" s="23">
+        <v>1</v>
+      </c>
+      <c r="O33" s="23">
+        <v>0</v>
+      </c>
+      <c r="P33" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>0</v>
+      </c>
+      <c r="R33" s="23">
+        <v>0</v>
+      </c>
+      <c r="S33" s="23">
+        <v>1</v>
+      </c>
+      <c r="T33" s="23">
+        <v>0</v>
+      </c>
+      <c r="U33" s="22">
+        <f>SUM(N33:T33)</f>
+        <v>3</v>
+      </c>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+    </row>
+    <row r="34" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="V34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="W34" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M35" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="24">
+        <v>1</v>
+      </c>
+      <c r="O35" s="24">
+        <v>1</v>
+      </c>
+      <c r="P35" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="22">
+        <f>SUMPRODUCT($N$33:$T$33,N35:T35)</f>
+        <v>2</v>
+      </c>
+      <c r="V35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W35" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="24">
+        <v>1</v>
+      </c>
+      <c r="O36" s="24">
+        <v>1</v>
+      </c>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24">
+        <v>1</v>
+      </c>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="22">
+        <f t="shared" ref="U36:U41" si="0">SUMPRODUCT($N$33:$T$33,N36:T36)</f>
+        <v>1</v>
+      </c>
+      <c r="V36" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="24">
+        <v>1</v>
+      </c>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="24">
+        <v>1</v>
+      </c>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24">
+        <v>1</v>
+      </c>
+      <c r="U37" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V37" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W37" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M38" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24">
+        <v>1</v>
+      </c>
+      <c r="P38" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="24">
+        <v>1</v>
+      </c>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24">
+        <v>1</v>
+      </c>
+      <c r="T38" s="24">
+        <v>1</v>
+      </c>
+      <c r="U38" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V38" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W38" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M39" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24">
+        <v>1</v>
+      </c>
+      <c r="S39" s="24">
+        <v>1</v>
+      </c>
+      <c r="T39" s="24"/>
+      <c r="U39" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V39" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W39" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M40" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24">
+        <v>1</v>
+      </c>
+      <c r="R40" s="24">
+        <v>1</v>
+      </c>
+      <c r="S40" s="24">
+        <v>1</v>
+      </c>
+      <c r="T40" s="24"/>
+      <c r="U40" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W40" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M41" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="24">
+        <v>1</v>
+      </c>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24">
+        <v>1</v>
+      </c>
+      <c r="U41" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W41" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="24">
+        <v>3.15</v>
+      </c>
+      <c r="O42" s="24">
+        <v>3.6</v>
+      </c>
+      <c r="P42" s="24">
+        <v>3.15</v>
+      </c>
+      <c r="Q42" s="24">
+        <v>4.05</v>
+      </c>
+      <c r="R42" s="24">
+        <v>2.85</v>
+      </c>
+      <c r="S42" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="T42" s="29">
+        <v>3.6</v>
+      </c>
+      <c r="U42" s="31">
+        <f>SUMPRODUCT(N33:T33,N42:T42)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="U43" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+    </row>
+    <row r="44" spans="13:23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J21:K22"/>
+  <mergeCells count="2">
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="U43:W43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
